--- a/storage/import/categories.xlsx
+++ b/storage/import/categories.xlsx
@@ -16,15 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
-  <si>
-    <t>zipcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郵遞區號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,38 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,15 +114,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,198 +534,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
